--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1707788.139844376</v>
+        <v>1692554.574051498</v>
       </c>
     </row>
     <row r="7">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>182.5570120086808</v>
       </c>
       <c r="G2" t="n">
-        <v>175.6809662669684</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95.99333807884827</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>152.2032171150458</v>
       </c>
     </row>
     <row r="4">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663198</v>
+        <v>93.2551534093385</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>50.12347543419729</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663196</v>
+        <v>153.8072380324135</v>
       </c>
       <c r="G5" t="n">
-        <v>57.08569488870441</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368145</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>77.97021545617334</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714242</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>178.5996398793596</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553089</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5255871663196</v>
+        <v>17.75259673058072</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>30.87184819825554</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663196</v>
+        <v>68.4509940323867</v>
       </c>
       <c r="G8" t="n">
-        <v>153.8072380324128</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714242</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.097521993176758</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>9.633145769157867</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553089</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>143.5881499593685</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>85.69050740845918</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>158.1294407168337</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>154.1552139341827</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>46.50187133648316</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.78083674901936</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1666,16 +1666,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>95.93651183305538</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.86209348694648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>84.9587520219479</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>84.69473660442775</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>179.1910684887534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>57.01231827275463</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>173.5578851713665</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>8.572678716348276</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,10 +2335,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>160.5914179078233</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>222.2913066157157</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2496,7 +2496,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>107.3319934086297</v>
+        <v>21.59413115639144</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>318.9252012725587</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I26" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>345.0637316859613</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>128.429106572701</v>
+        <v>94.17925589982863</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U28" t="n">
         <v>286.1925856817478</v>
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>355.111988621294</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.1348553313306</v>
@@ -2812,7 +2812,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>200.4734453045276</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9322223331321</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>160.996270382881</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>128.4291065727012</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>158.596093953513</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.5190765476218</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9322223331321</v>
+        <v>124.9744115400765</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>146.2086215156122</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.880854602271</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T34" t="n">
         <v>218.04083490674</v>
@@ -3246,13 +3246,13 @@
         <v>286.1925856817478</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>341.5596346933876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9322223331321</v>
+        <v>136.215523219363</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>27.07274172800576</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.06165549728793</v>
+        <v>40.45121145460053</v>
       </c>
       <c r="S37" t="n">
         <v>183.6178439565572</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>278.995873611824</v>
+        <v>410.1348553313306</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I38" t="n">
-        <v>11.24111167928652</v>
+        <v>0.4289470006110571</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>94.17925589982865</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>218.04083490674</v>
@@ -3720,7 +3720,7 @@
         <v>286.1925856817478</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>162.525914989789</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>223.5440599011772</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I41" t="n">
         <v>11.24111167928652</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9322223331321</v>
+        <v>124.9744115400765</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>108.3383907602638</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79.03728406122201</v>
       </c>
       <c r="G43" t="n">
         <v>165.6728453215022</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>183.6178439565572</v>
@@ -3954,7 +3954,7 @@
         <v>218.04083490674</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>234.1339100515009</v>
+        <v>239.3150809779513</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I44" t="n">
         <v>11.24111167928652</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.9322223331321</v>
@@ -4152,7 +4152,7 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H46" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1925856817478</v>
+        <v>248.9488469329466</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>107.662406063473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="C2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="D2" t="n">
-        <v>199.4030692042953</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4030692042953</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4575684550919</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644764</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.495204112384</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201466</v>
+        <v>738.6222485201484</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372647</v>
+        <v>578.2426392372665</v>
       </c>
       <c r="T2" t="n">
-        <v>388.82285422078</v>
+        <v>578.2426392372665</v>
       </c>
       <c r="U2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="V2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="W2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="X2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.82285422078</v>
+        <v>388.8228542207814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452113</v>
+        <v>238.7266032801969</v>
       </c>
       <c r="C3" t="n">
-        <v>407.4339823640843</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="D3" t="n">
-        <v>258.499572702833</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="E3" t="n">
-        <v>258.499572702833</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="F3" t="n">
-        <v>111.965014729718</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476361</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017075</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652794</v>
+        <v>560.682563648796</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652794</v>
+        <v>406.9419403002649</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.6330054664542</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="C4" t="n">
-        <v>320.6330054664542</v>
+        <v>483.5921904008244</v>
       </c>
       <c r="D4" t="n">
-        <v>320.6330054664542</v>
+        <v>333.4755509884887</v>
       </c>
       <c r="E4" t="n">
-        <v>320.6330054664542</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
-        <v>320.6330054664542</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>465.253018269215</v>
+        <v>295.552956263964</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287293</v>
+        <v>471.6341805242531</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652794</v>
+        <v>634.3723839608033</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652811</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846288</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652794</v>
+        <v>746.7254979846288</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487947</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="T4" t="n">
-        <v>371.26277863231</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="U4" t="n">
-        <v>320.6330054664542</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="V4" t="n">
-        <v>320.6330054664542</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="W4" t="n">
-        <v>320.6330054664542</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="X4" t="n">
-        <v>320.6330054664542</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.6330054664542</v>
+        <v>652.5283733287313</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="C5" t="n">
-        <v>388.8228542207792</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="D5" t="n">
-        <v>388.8228542207792</v>
+        <v>359.7826784871779</v>
       </c>
       <c r="E5" t="n">
-        <v>388.8228542207792</v>
+        <v>359.7826784871779</v>
       </c>
       <c r="F5" t="n">
-        <v>199.4030692042947</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348963</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348963</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020256</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S5" t="n">
-        <v>578.2426392372637</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="T5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="U5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="V5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="W5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="X5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="Y5" t="n">
-        <v>388.8228542207792</v>
+        <v>738.6222485201477</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201.8127551766207</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C6" t="n">
-        <v>201.8127551766207</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D6" t="n">
-        <v>201.8127551766207</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E6" t="n">
-        <v>201.8127551766207</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8127551766207</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546596</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R6" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="S6" t="n">
-        <v>571.6362168389229</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="T6" t="n">
-        <v>571.6362168389229</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="U6" t="n">
-        <v>571.6362168389229</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="V6" t="n">
-        <v>391.2325401931051</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="W6" t="n">
-        <v>391.2325401931051</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="X6" t="n">
-        <v>391.2325401931051</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.8127551766207</v>
+        <v>722.9192922843284</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.7022429029141</v>
+        <v>357.7253322484279</v>
       </c>
       <c r="C7" t="n">
-        <v>336.7022429029141</v>
+        <v>188.7891493205209</v>
       </c>
       <c r="D7" t="n">
-        <v>186.5856034905784</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="E7" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F7" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G7" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H7" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I7" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>43.17590452428067</v>
+        <v>43.17590452428121</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394156</v>
+        <v>216.0634826394163</v>
       </c>
       <c r="M7" t="n">
-        <v>401.713813934072</v>
+        <v>401.7138139340732</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287285</v>
+        <v>587.3641452287301</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846261</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R7" t="n">
-        <v>746.7254979846261</v>
+        <v>746.725497984628</v>
       </c>
       <c r="S7" t="n">
-        <v>557.3057129681416</v>
+        <v>728.7935820951525</v>
       </c>
       <c r="T7" t="n">
-        <v>367.8859279516571</v>
+        <v>728.7935820951525</v>
       </c>
       <c r="U7" t="n">
-        <v>367.8859279516571</v>
+        <v>728.7935820951525</v>
       </c>
       <c r="V7" t="n">
-        <v>336.7022429029141</v>
+        <v>728.7935820951525</v>
       </c>
       <c r="W7" t="n">
-        <v>336.7022429029141</v>
+        <v>728.7935820951525</v>
       </c>
       <c r="X7" t="n">
-        <v>336.7022429029141</v>
+        <v>539.3737970786676</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.7022429029141</v>
+        <v>539.3737970786676</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.7826784871767</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="C8" t="n">
-        <v>359.7826784871767</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="D8" t="n">
-        <v>359.7826784871767</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="E8" t="n">
-        <v>359.7826784871767</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="F8" t="n">
-        <v>170.3628934706923</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020255</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652784</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201456</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201456</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T8" t="n">
-        <v>549.2024635036612</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="U8" t="n">
-        <v>549.2024635036612</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="V8" t="n">
-        <v>549.2024635036612</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="W8" t="n">
-        <v>549.2024635036612</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="X8" t="n">
-        <v>549.2024635036612</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="Y8" t="n">
-        <v>359.7826784871767</v>
+        <v>400.3029543659131</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>166.133934959413</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024198</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017051</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652784</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843265</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843265</v>
+        <v>720.8005832003109</v>
       </c>
       <c r="T9" t="n">
-        <v>533.4995072678421</v>
+        <v>531.3807981838261</v>
       </c>
       <c r="U9" t="n">
-        <v>344.0797222513576</v>
+        <v>531.3807981838261</v>
       </c>
       <c r="V9" t="n">
-        <v>344.0797222513576</v>
+        <v>341.9610131673413</v>
       </c>
       <c r="W9" t="n">
-        <v>334.349271979481</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="X9" t="n">
-        <v>334.349271979481</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.349271979481</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>467.5229529643645</v>
+        <v>470.7496448787899</v>
       </c>
       <c r="C10" t="n">
-        <v>467.5229529643645</v>
+        <v>470.7496448787899</v>
       </c>
       <c r="D10" t="n">
-        <v>467.5229529643645</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="E10" t="n">
-        <v>467.5229529643645</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="F10" t="n">
         <v>320.6330054664542</v>
@@ -4956,58 +4956,58 @@
         <v>320.6330054664542</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757274</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594233</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745582</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5529562639635</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242507</v>
+        <v>488.6815517114714</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608008</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652784</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.725497984626</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R10" t="n">
-        <v>612.561488276858</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S10" t="n">
-        <v>467.5229529643645</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T10" t="n">
-        <v>467.5229529643645</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="U10" t="n">
-        <v>467.5229529643645</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="V10" t="n">
-        <v>467.5229529643645</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="W10" t="n">
-        <v>467.5229529643645</v>
+        <v>470.7496448787899</v>
       </c>
       <c r="X10" t="n">
-        <v>467.5229529643645</v>
+        <v>470.7496448787899</v>
       </c>
       <c r="Y10" t="n">
-        <v>467.5229529643645</v>
+        <v>470.7496448787899</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2085.807325826217</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C11" t="n">
-        <v>1716.844808885805</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1358.579110279054</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>972.7908576808102</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>561.8049528912027</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5056,37 +5056,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.54649786615</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>2862.54649786615</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y11" t="n">
-        <v>2472.407165890339</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450752</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.744041450752</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2424.744041450752</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
         <v>310.0549803959803</v>
@@ -5433,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>786.5064863065235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528559</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389512</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158142</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>478.4305777370295</v>
+        <v>152.0623554265549</v>
       </c>
       <c r="C19" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5679,19 +5679,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
@@ -5700,25 +5700,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242372</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621287</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621287</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="X19" t="n">
-        <v>699.2231568805596</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="Y19" t="n">
-        <v>478.4305777370295</v>
+        <v>333.7108202567946</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1648.004869410819</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1648.004869410819</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1289.739170804068</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389512</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5767,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450752</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>2034.604709474941</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2175.332169839293</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>2006.395986911386</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>1856.279347499051</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178696</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>3095.179934748041</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>3095.179934748041</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>2805.76276471108</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>2577.773213813063</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>2356.980634669533</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023.981057245012</v>
+        <v>2197.549268949163</v>
       </c>
       <c r="C23" t="n">
-        <v>1655.0185403046</v>
+        <v>1828.586752008751</v>
       </c>
       <c r="D23" t="n">
-        <v>1296.75284169785</v>
+        <v>1470.321053402001</v>
       </c>
       <c r="E23" t="n">
-        <v>910.9645890996053</v>
+        <v>1084.532800803757</v>
       </c>
       <c r="F23" t="n">
-        <v>499.9786843099977</v>
+        <v>673.5468960141491</v>
       </c>
       <c r="G23" t="n">
-        <v>85.70105266218901</v>
+        <v>259.2692643663403</v>
       </c>
       <c r="H23" t="n">
-        <v>85.70105266218901</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I23" t="n">
-        <v>85.70105266218901</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J23" t="n">
-        <v>340.696972273463</v>
+        <v>340.6969722734623</v>
       </c>
       <c r="K23" t="n">
-        <v>773.6082731436609</v>
+        <v>773.6082731436601</v>
       </c>
       <c r="L23" t="n">
-        <v>1347.57478436688</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M23" t="n">
-        <v>2017.892557053756</v>
+        <v>2017.892557053754</v>
       </c>
       <c r="N23" t="n">
-        <v>2703.670580477194</v>
+        <v>2703.670580477192</v>
       </c>
       <c r="O23" t="n">
-        <v>3337.896060373234</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P23" t="n">
-        <v>3844.691833280482</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q23" t="n">
-        <v>4177.101606109322</v>
+        <v>4177.101606109321</v>
       </c>
       <c r="R23" t="n">
-        <v>4285.052633109451</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="S23" t="n">
-        <v>4285.052633109451</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="T23" t="n">
-        <v>4082.554203508918</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="U23" t="n">
-        <v>3858.01753015971</v>
+        <v>4031.585741863862</v>
       </c>
       <c r="V23" t="n">
-        <v>3526.954642816139</v>
+        <v>3700.522854520291</v>
       </c>
       <c r="W23" t="n">
-        <v>3174.185987546025</v>
+        <v>3347.754199250176</v>
       </c>
       <c r="X23" t="n">
-        <v>2800.720229284945</v>
+        <v>2974.288440989097</v>
       </c>
       <c r="Y23" t="n">
-        <v>2410.580897309133</v>
+        <v>2584.149109013285</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H24" t="n">
-        <v>90.06653139491659</v>
+        <v>90.06653139491658</v>
       </c>
       <c r="I24" t="n">
-        <v>85.70105266218901</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J24" t="n">
         <v>218.7570285287381</v>
@@ -6077,13 +6077,13 @@
         <v>981.5230502229011</v>
       </c>
       <c r="M24" t="n">
-        <v>1534.40765116768</v>
+        <v>1073.136375496681</v>
       </c>
       <c r="N24" t="n">
-        <v>2116.33410725574</v>
+        <v>1655.06283158474</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.282664596279</v>
+        <v>2165.192055145369</v>
       </c>
       <c r="P24" t="n">
         <v>2555.282664596279</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1009.950551280532</v>
+        <v>1096.55445254542</v>
       </c>
       <c r="C25" t="n">
-        <v>841.0143683526254</v>
+        <v>927.6182696175127</v>
       </c>
       <c r="D25" t="n">
-        <v>690.8977289402897</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E25" t="n">
-        <v>542.9846353578965</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F25" t="n">
-        <v>396.0946878599862</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G25" t="n">
-        <v>228.7483794544284</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H25" t="n">
-        <v>85.70105266218901</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I25" t="n">
-        <v>85.70105266218901</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J25" t="n">
         <v>155.528619995381</v>
@@ -6153,13 +6153,13 @@
         <v>400.1136000184965</v>
       </c>
       <c r="L25" t="n">
-        <v>768.6246013896928</v>
+        <v>768.6246013896927</v>
       </c>
       <c r="M25" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N25" t="n">
-        <v>1562.438109227327</v>
+        <v>1562.438109227326</v>
       </c>
       <c r="O25" t="n">
         <v>1911.158517921626</v>
@@ -6180,19 +6180,19 @@
         <v>2292.898959353379</v>
       </c>
       <c r="U25" t="n">
-        <v>2184.482804395167</v>
+        <v>2271.086705660054</v>
       </c>
       <c r="V25" t="n">
-        <v>1929.79831618928</v>
+        <v>2016.402217454167</v>
       </c>
       <c r="W25" t="n">
-        <v>1640.381146152319</v>
+        <v>1726.985047417207</v>
       </c>
       <c r="X25" t="n">
-        <v>1412.391595254302</v>
+        <v>1498.995496519189</v>
       </c>
       <c r="Y25" t="n">
-        <v>1191.599016110772</v>
+        <v>1278.202917375659</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1902.872097608427</v>
+        <v>1944.462205659025</v>
       </c>
       <c r="C26" t="n">
-        <v>1533.909580668015</v>
+        <v>1944.462205659025</v>
       </c>
       <c r="D26" t="n">
-        <v>1533.909580668015</v>
+        <v>1586.196507052274</v>
       </c>
       <c r="E26" t="n">
-        <v>1211.762912715935</v>
+        <v>1200.40825445403</v>
       </c>
       <c r="F26" t="n">
-        <v>800.7770079263279</v>
+        <v>789.4223496644223</v>
       </c>
       <c r="G26" t="n">
-        <v>386.4993762785192</v>
+        <v>375.1447180166136</v>
       </c>
       <c r="H26" t="n">
-        <v>97.05571092409458</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I26" t="n">
         <v>85.70105266218901</v>
       </c>
       <c r="J26" t="n">
-        <v>340.6969722734621</v>
+        <v>340.6969722734625</v>
       </c>
       <c r="K26" t="n">
-        <v>773.6082731436595</v>
+        <v>773.6082731436604</v>
       </c>
       <c r="L26" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M26" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N26" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O26" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P26" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q26" t="n">
         <v>4177.101606109322</v>
@@ -6271,7 +6271,7 @@
         <v>2679.61126964836</v>
       </c>
       <c r="Y26" t="n">
-        <v>2289.471937672548</v>
+        <v>2331.062045723147</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>524.3257088536227</v>
       </c>
       <c r="L27" t="n">
-        <v>524.3257088536227</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M27" t="n">
-        <v>862.2903301120418</v>
+        <v>1073.136375496681</v>
       </c>
       <c r="N27" t="n">
-        <v>1444.216786200101</v>
+        <v>1655.06283158474</v>
       </c>
       <c r="O27" t="n">
-        <v>1954.346009760729</v>
+        <v>2165.192055145369</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.436619211639</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.282664596279</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.2832863581907</v>
+        <v>349.7677971050744</v>
       </c>
       <c r="C28" t="n">
-        <v>660.3471034302838</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="D28" t="n">
-        <v>510.2304640179481</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="E28" t="n">
-        <v>362.3173704355549</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="F28" t="n">
-        <v>215.4274229376446</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="G28" t="n">
         <v>85.70105266218901</v>
@@ -6408,28 +6408,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R28" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S28" t="n">
-        <v>2292.898959353379</v>
+        <v>2033.626737682828</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.898959353379</v>
+        <v>1813.383470100262</v>
       </c>
       <c r="U28" t="n">
-        <v>2003.815539472826</v>
+        <v>1524.300050219709</v>
       </c>
       <c r="V28" t="n">
-        <v>1749.131051266939</v>
+        <v>1269.615562013822</v>
       </c>
       <c r="W28" t="n">
-        <v>1459.713881229978</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="X28" t="n">
-        <v>1231.724330331961</v>
+        <v>752.2088410788442</v>
       </c>
       <c r="Y28" t="n">
-        <v>1010.93175118843</v>
+        <v>531.4162619353141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1902.872097608426</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C29" t="n">
-        <v>1533.909580668014</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D29" t="n">
-        <v>1533.909580668014</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E29" t="n">
-        <v>1148.12132806977</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F29" t="n">
-        <v>789.4223496644223</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1447180166136</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H29" t="n">
-        <v>85.701052662189</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I29" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J29" t="n">
-        <v>340.6969722734623</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K29" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436595</v>
       </c>
       <c r="L29" t="n">
         <v>1347.574784366879</v>
@@ -6484,31 +6484,31 @@
         <v>3844.691833280481</v>
       </c>
       <c r="Q29" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R29" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S29" t="n">
-        <v>4192.873891369245</v>
+        <v>4192.873891369246</v>
       </c>
       <c r="T29" t="n">
-        <v>3990.375461768712</v>
+        <v>3990.375461768713</v>
       </c>
       <c r="U29" t="n">
-        <v>3736.908570523124</v>
+        <v>3990.375461768713</v>
       </c>
       <c r="V29" t="n">
-        <v>3405.845683179553</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W29" t="n">
-        <v>3053.077027909439</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X29" t="n">
-        <v>2679.611269648359</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y29" t="n">
-        <v>2289.471937672547</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H30" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I30" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J30" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K30" t="n">
-        <v>218.7570285287381</v>
+        <v>520.2517745519023</v>
       </c>
       <c r="L30" t="n">
         <v>520.2517745519023</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2821.436960114262</v>
+        <v>1096.55445254542</v>
       </c>
       <c r="C31" t="n">
-        <v>2652.500777186355</v>
+        <v>927.6182696175127</v>
       </c>
       <c r="D31" t="n">
-        <v>2502.38413777402</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E31" t="n">
-        <v>2354.471044191626</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F31" t="n">
-        <v>2207.581096693716</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G31" t="n">
-        <v>2077.85472641826</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H31" t="n">
-        <v>2077.85472641826</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I31" t="n">
-        <v>2077.85472641826</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J31" t="n">
-        <v>2147.682293751452</v>
+        <v>155.528619995381</v>
       </c>
       <c r="K31" t="n">
-        <v>2392.267273774567</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L31" t="n">
-        <v>2760.778275145763</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M31" t="n">
-        <v>3159.710580131158</v>
+        <v>1167.556906375087</v>
       </c>
       <c r="N31" t="n">
-        <v>3554.591782983397</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O31" t="n">
-        <v>3903.312191677697</v>
+        <v>1911.158517921626</v>
       </c>
       <c r="P31" t="n">
-        <v>4178.182062398968</v>
+        <v>2186.028388642897</v>
       </c>
       <c r="Q31" t="n">
-        <v>4285.05263310945</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R31" t="n">
-        <v>4285.05263310945</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S31" t="n">
-        <v>4285.05263310945</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T31" t="n">
-        <v>4285.05263310945</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="U31" t="n">
-        <v>3995.969213228896</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="V31" t="n">
-        <v>3741.28472502301</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="W31" t="n">
-        <v>3451.867554986049</v>
+        <v>1726.985047417207</v>
       </c>
       <c r="X31" t="n">
-        <v>3223.878004088032</v>
+        <v>1498.995496519189</v>
       </c>
       <c r="Y31" t="n">
-        <v>3003.085424944502</v>
+        <v>1278.202917375659</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>85.70105266218901</v>
       </c>
       <c r="J32" t="n">
-        <v>340.6969722734621</v>
+        <v>340.6969722734625</v>
       </c>
       <c r="K32" t="n">
-        <v>773.6082731436595</v>
+        <v>773.6082731436604</v>
       </c>
       <c r="L32" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M32" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N32" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O32" t="n">
         <v>3337.896060373233</v>
       </c>
       <c r="P32" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q32" t="n">
         <v>4177.101606109322</v>
@@ -6727,25 +6727,25 @@
         <v>4285.052633109451</v>
       </c>
       <c r="S32" t="n">
-        <v>4192.873891369246</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T32" t="n">
-        <v>4192.873891369246</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="U32" t="n">
-        <v>3939.407000123658</v>
+        <v>4158.81585377604</v>
       </c>
       <c r="V32" t="n">
-        <v>3608.344112780087</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W32" t="n">
-        <v>3255.575457509973</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X32" t="n">
-        <v>2882.109699248893</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y32" t="n">
-        <v>2491.970367273081</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>981.5230502229011</v>
       </c>
       <c r="M33" t="n">
-        <v>1534.40765116768</v>
+        <v>1073.136375496681</v>
       </c>
       <c r="N33" t="n">
-        <v>2116.33410725574</v>
+        <v>1655.06283158474</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.282664596279</v>
+        <v>2165.192055145369</v>
       </c>
       <c r="P33" t="n">
         <v>2555.282664596279</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.714057879529</v>
+        <v>383.7307856569179</v>
       </c>
       <c r="C34" t="n">
-        <v>922.7778749516226</v>
+        <v>383.7307856569179</v>
       </c>
       <c r="D34" t="n">
-        <v>772.6612355392868</v>
+        <v>233.6141462445821</v>
       </c>
       <c r="E34" t="n">
-        <v>624.7481419568937</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="F34" t="n">
-        <v>477.8581944589833</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="G34" t="n">
-        <v>315.3522807193157</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="H34" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I34" t="n">
         <v>85.70105266218901</v>
@@ -6882,28 +6882,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R34" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S34" t="n">
-        <v>2292.898959353379</v>
+        <v>2033.626737682828</v>
       </c>
       <c r="T34" t="n">
-        <v>2072.655691770813</v>
+        <v>1813.383470100262</v>
       </c>
       <c r="U34" t="n">
-        <v>1783.57227189026</v>
+        <v>1524.300050219709</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.57227189026</v>
+        <v>1269.615562013822</v>
       </c>
       <c r="W34" t="n">
-        <v>1494.155101853299</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.155101853299</v>
+        <v>752.2088410788442</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.362522709769</v>
+        <v>531.4162619353141</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2289.471937672547</v>
+        <v>2313.424722599436</v>
       </c>
       <c r="C35" t="n">
         <v>1944.462205659025</v>
@@ -6931,16 +6931,16 @@
         <v>375.1447180166136</v>
       </c>
       <c r="H35" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I35" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J35" t="n">
-        <v>340.6969722734623</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K35" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436595</v>
       </c>
       <c r="L35" t="n">
         <v>1347.574784366879</v>
@@ -6958,31 +6958,31 @@
         <v>3844.691833280481</v>
       </c>
       <c r="Q35" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S35" t="n">
-        <v>4192.873891369245</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T35" t="n">
-        <v>3990.375461768712</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="U35" t="n">
-        <v>3736.908570523124</v>
+        <v>4147.461195514134</v>
       </c>
       <c r="V35" t="n">
-        <v>3405.845683179553</v>
+        <v>3816.398308170564</v>
       </c>
       <c r="W35" t="n">
-        <v>3053.077027909439</v>
+        <v>3463.62965290045</v>
       </c>
       <c r="X35" t="n">
-        <v>2679.611269648359</v>
+        <v>3090.16389463937</v>
       </c>
       <c r="Y35" t="n">
-        <v>2289.471937672547</v>
+        <v>2700.024562663558</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H36" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I36" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J36" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K36" t="n">
-        <v>218.7570285287381</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L36" t="n">
-        <v>675.9543698980165</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.838970842795</v>
+        <v>1073.136375496681</v>
       </c>
       <c r="N36" t="n">
-        <v>1444.216786200101</v>
+        <v>1655.06283158474</v>
       </c>
       <c r="O36" t="n">
-        <v>1954.346009760729</v>
+        <v>2165.192055145369</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.436619211639</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.282664596279</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>349.7677971050744</v>
+        <v>382.7076395724351</v>
       </c>
       <c r="C37" t="n">
-        <v>322.421593339412</v>
+        <v>382.7076395724351</v>
       </c>
       <c r="D37" t="n">
-        <v>172.3049539270763</v>
+        <v>232.5910001600994</v>
       </c>
       <c r="E37" t="n">
-        <v>172.3049539270763</v>
+        <v>232.5910001600994</v>
       </c>
       <c r="F37" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="G37" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="H37" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J37" t="n">
         <v>155.528619995381</v>
@@ -7101,13 +7101,13 @@
         <v>400.1136000184965</v>
       </c>
       <c r="L37" t="n">
-        <v>768.6246013896927</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M37" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N37" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O37" t="n">
         <v>1911.158517921626</v>
@@ -7119,28 +7119,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R37" t="n">
-        <v>2219.099307335916</v>
+        <v>2252.039149803277</v>
       </c>
       <c r="S37" t="n">
-        <v>2033.626737682828</v>
+        <v>2066.566580150189</v>
       </c>
       <c r="T37" t="n">
-        <v>1813.383470100262</v>
+        <v>1846.323312567623</v>
       </c>
       <c r="U37" t="n">
-        <v>1524.300050219709</v>
+        <v>1557.23989268707</v>
       </c>
       <c r="V37" t="n">
-        <v>1269.615562013822</v>
+        <v>1302.555404481183</v>
       </c>
       <c r="W37" t="n">
-        <v>980.1983919768616</v>
+        <v>1013.138234444222</v>
       </c>
       <c r="X37" t="n">
-        <v>752.2088410788442</v>
+        <v>785.148683546205</v>
       </c>
       <c r="Y37" t="n">
-        <v>531.4162619353141</v>
+        <v>564.3561044026749</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>789.8556294630193</v>
       </c>
       <c r="F38" t="n">
-        <v>378.8697246734118</v>
+        <v>789.8556294630193</v>
       </c>
       <c r="G38" t="n">
-        <v>97.05571092409457</v>
+        <v>375.5779978152106</v>
       </c>
       <c r="H38" t="n">
-        <v>97.05571092409457</v>
+        <v>86.13433246078603</v>
       </c>
       <c r="I38" t="n">
         <v>85.701052662189</v>
@@ -7183,10 +7183,10 @@
         <v>1347.574784366879</v>
       </c>
       <c r="M38" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N38" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O38" t="n">
         <v>3337.896060373233</v>
@@ -7259,10 +7259,10 @@
         <v>524.3257088536227</v>
       </c>
       <c r="L39" t="n">
-        <v>524.3257088536227</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M39" t="n">
-        <v>862.2903301120418</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="N39" t="n">
         <v>1444.216786200101</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>349.7677971050744</v>
+        <v>699.5569160827351</v>
       </c>
       <c r="C40" t="n">
-        <v>180.8316141771674</v>
+        <v>530.6207331548283</v>
       </c>
       <c r="D40" t="n">
-        <v>85.701052662189</v>
+        <v>380.5040937424925</v>
       </c>
       <c r="E40" t="n">
-        <v>85.701052662189</v>
+        <v>232.5910001600994</v>
       </c>
       <c r="F40" t="n">
         <v>85.701052662189</v>
@@ -7356,28 +7356,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R40" t="n">
-        <v>2219.099307335916</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S40" t="n">
-        <v>2033.626737682828</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="T40" t="n">
-        <v>1813.383470100262</v>
+        <v>2072.655691770813</v>
       </c>
       <c r="U40" t="n">
-        <v>1524.300050219709</v>
+        <v>1783.57227189026</v>
       </c>
       <c r="V40" t="n">
-        <v>1269.615562013822</v>
+        <v>1619.404680991483</v>
       </c>
       <c r="W40" t="n">
-        <v>980.1983919768616</v>
+        <v>1329.987510954522</v>
       </c>
       <c r="X40" t="n">
-        <v>752.2088410788442</v>
+        <v>1101.997960056505</v>
       </c>
       <c r="Y40" t="n">
-        <v>531.4162619353141</v>
+        <v>881.2053809129749</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1902.872097608427</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C41" t="n">
-        <v>1533.909580668015</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.107499959755</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E41" t="n">
-        <v>922.3192473615109</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F41" t="n">
-        <v>511.3333425719033</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G41" t="n">
-        <v>97.05571092409458</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H41" t="n">
         <v>97.05571092409458</v>
@@ -7411,25 +7411,25 @@
         <v>85.70105266218901</v>
       </c>
       <c r="J41" t="n">
-        <v>340.6969722734621</v>
+        <v>340.696972273463</v>
       </c>
       <c r="K41" t="n">
-        <v>773.6082731436595</v>
+        <v>773.6082731436609</v>
       </c>
       <c r="L41" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M41" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N41" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O41" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P41" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q41" t="n">
         <v>4177.101606109322</v>
@@ -7438,25 +7438,25 @@
         <v>4285.052633109451</v>
       </c>
       <c r="S41" t="n">
-        <v>4192.873891369246</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T41" t="n">
-        <v>3990.375461768713</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="U41" t="n">
-        <v>3736.908570523125</v>
+        <v>4158.81585377604</v>
       </c>
       <c r="V41" t="n">
-        <v>3405.845683179554</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W41" t="n">
-        <v>3053.07702790944</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X41" t="n">
-        <v>2679.61126964836</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y41" t="n">
-        <v>2289.471937672548</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>218.7570285287381</v>
       </c>
       <c r="K42" t="n">
-        <v>453.1450426335339</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L42" t="n">
-        <v>910.3423840028123</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="M42" t="n">
-        <v>1463.226984947591</v>
+        <v>836.5534873428851</v>
       </c>
       <c r="N42" t="n">
-        <v>2045.153441035651</v>
+        <v>1418.479943430944</v>
       </c>
       <c r="O42" t="n">
-        <v>2555.282664596279</v>
+        <v>1928.609166991572</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.282664596279</v>
+        <v>2318.699776442482</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="R42" t="n">
         <v>2555.282664596279</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>531.4162619353141</v>
+        <v>712.6508690030901</v>
       </c>
       <c r="C43" t="n">
-        <v>362.4800790074072</v>
+        <v>712.6508690030901</v>
       </c>
       <c r="D43" t="n">
-        <v>253.0473610677468</v>
+        <v>562.5342295907543</v>
       </c>
       <c r="E43" t="n">
-        <v>253.0473610677468</v>
+        <v>562.5342295907543</v>
       </c>
       <c r="F43" t="n">
-        <v>253.0473610677468</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G43" t="n">
-        <v>85.70105266218901</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H43" t="n">
-        <v>85.70105266218901</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I43" t="n">
         <v>85.70105266218901</v>
@@ -7593,28 +7593,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R43" t="n">
-        <v>2219.099307335916</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S43" t="n">
-        <v>2033.626737682828</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T43" t="n">
-        <v>1813.383470100262</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="U43" t="n">
-        <v>1524.300050219709</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="V43" t="n">
-        <v>1269.615562013822</v>
+        <v>1632.498633911838</v>
       </c>
       <c r="W43" t="n">
-        <v>980.1983919768616</v>
+        <v>1343.081463874877</v>
       </c>
       <c r="X43" t="n">
-        <v>752.2088410788442</v>
+        <v>1115.09191297686</v>
       </c>
       <c r="Y43" t="n">
-        <v>531.4162619353141</v>
+        <v>894.2993338333298</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1902.872097608426</v>
+        <v>2197.549268949164</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.373198566506</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.107499959755</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E44" t="n">
-        <v>922.3192473615109</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F44" t="n">
-        <v>511.3333425719033</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G44" t="n">
-        <v>97.05571092409457</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H44" t="n">
-        <v>97.05571092409457</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I44" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J44" t="n">
-        <v>340.6969722734623</v>
+        <v>340.6969722734625</v>
       </c>
       <c r="K44" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436604</v>
       </c>
       <c r="L44" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M44" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N44" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O44" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P44" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q44" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R44" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S44" t="n">
-        <v>4192.873891369245</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T44" t="n">
-        <v>3990.375461768712</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="U44" t="n">
-        <v>3736.908570523124</v>
+        <v>4031.585741863862</v>
       </c>
       <c r="V44" t="n">
-        <v>3405.845683179553</v>
+        <v>3700.522854520292</v>
       </c>
       <c r="W44" t="n">
-        <v>3053.077027909439</v>
+        <v>3347.754199250177</v>
       </c>
       <c r="X44" t="n">
-        <v>2679.611269648359</v>
+        <v>2974.288440989098</v>
       </c>
       <c r="Y44" t="n">
-        <v>2289.471937672547</v>
+        <v>2584.149109013286</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H45" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I45" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J45" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K45" t="n">
-        <v>218.7570285287381</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L45" t="n">
-        <v>675.9543698980165</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.838970842795</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N45" t="n">
-        <v>1810.765426930855</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.894650491482</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P45" t="n">
         <v>2555.282664596279</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1009.950551280532</v>
+        <v>866.9032244882929</v>
       </c>
       <c r="C46" t="n">
-        <v>841.0143683526254</v>
+        <v>697.9670415603861</v>
       </c>
       <c r="D46" t="n">
-        <v>690.8977289402897</v>
+        <v>547.8504021480503</v>
       </c>
       <c r="E46" t="n">
-        <v>542.9846353578965</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="F46" t="n">
-        <v>396.0946878599862</v>
+        <v>253.0473610677468</v>
       </c>
       <c r="G46" t="n">
-        <v>228.7483794544284</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="H46" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I46" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J46" t="n">
         <v>155.528619995381</v>
@@ -7812,13 +7812,13 @@
         <v>400.1136000184965</v>
       </c>
       <c r="L46" t="n">
-        <v>768.6246013896927</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M46" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N46" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O46" t="n">
         <v>1911.158517921626</v>
@@ -7839,19 +7839,19 @@
         <v>2292.898959353379</v>
       </c>
       <c r="U46" t="n">
-        <v>2003.815539472826</v>
+        <v>2041.435477602928</v>
       </c>
       <c r="V46" t="n">
-        <v>1749.131051266939</v>
+        <v>1786.750989397041</v>
       </c>
       <c r="W46" t="n">
-        <v>1640.381146152319</v>
+        <v>1497.33381936008</v>
       </c>
       <c r="X46" t="n">
-        <v>1412.391595254302</v>
+        <v>1269.344268462063</v>
       </c>
       <c r="Y46" t="n">
-        <v>1191.599016110772</v>
+        <v>1048.551689318533</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>99.67938739116985</v>
+        <v>154.1946371899322</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>42.56275186471051</v>
+        <v>42.5627518647109</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457082</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711115</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8619,13 +8619,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1946371899305</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>145.8220995101052</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>207.1434510541739</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>256.7665117192708</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>179.207784052554</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.9530049144612</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>253.3044568843576</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949908</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>133.6259013301469</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>82.55208449420009</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>46.51858690028374</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>324.9180517995072</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>30.36008496825366</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.6391594892646</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.5492287008803</v>
+        <v>125.957810793057</v>
       </c>
       <c r="I23" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>91.25695432280241</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U23" t="n">
-        <v>28.64091571741639</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>218.04083490674</v>
       </c>
       <c r="U25" t="n">
-        <v>178.8605922731181</v>
+        <v>264.5984545253564</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>63.00516879970309</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>41.17420697009226</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>37.24373874880123</v>
+        <v>71.49358942167359</v>
       </c>
       <c r="H28" t="n">
         <v>141.616853524317</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>51.76405712041748</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>166.7559880872539</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>37.24373874880101</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>73.06165549728793</v>
       </c>
       <c r="S31" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>127.926904383078</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>217.2147651158587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T32" t="n">
         <v>200.4734453045276</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>125.9578107930556</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>33.62335866632506</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>4.791990719231222</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>23.71325707761997</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>114.7166991137691</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>140.1740793706221</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.6728453215022</v>
@@ -25332,7 +25332,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>32.6104440426874</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>131.1389817195066</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>10.81216467867546</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>54.43621711838371</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.6728453215022</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>89.61172833403899</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>131.1389817195057</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>125.9578107930556</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>40.27708225794858</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.38376396170923</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>131.1389817195066</v>
+        <v>125.9578107930563</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I46" t="n">
         <v>85.7378622522384</v>
@@ -26079,13 +26079,13 @@
         <v>218.04083490674</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>37.24373874880118</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>178.860592273118</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744122.7541577012</v>
+        <v>744122.7541577013</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744122.7541577013</v>
+        <v>744122.7541577012</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744122.7541577013</v>
+        <v>744122.7541577012</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838782.8890553967</v>
+        <v>838782.8890553969</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838782.8890553968</v>
+        <v>838782.8890553969</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838782.8890553967</v>
+        <v>838782.8890553969</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838782.8890553967</v>
+        <v>838782.8890553968</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
@@ -26322,7 +26322,7 @@
         <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>460346.0836107428</v>
+        <v>460346.0836107429</v>
       </c>
       <c r="F2" t="n">
         <v>460346.0836107428</v>
@@ -26331,10 +26331,10 @@
         <v>460346.0836107429</v>
       </c>
       <c r="H2" t="n">
-        <v>460346.0836107429</v>
+        <v>460346.083610743</v>
       </c>
       <c r="I2" t="n">
-        <v>519783.8427325517</v>
+        <v>519783.8427325516</v>
       </c>
       <c r="J2" t="n">
         <v>519783.8427325515</v>
@@ -26343,19 +26343,19 @@
         <v>519783.8427325516</v>
       </c>
       <c r="L2" t="n">
+        <v>519783.8427325516</v>
+      </c>
+      <c r="M2" t="n">
         <v>519783.8427325517</v>
       </c>
-      <c r="M2" t="n">
-        <v>519783.8427325515</v>
-      </c>
       <c r="N2" t="n">
-        <v>519783.8427325514</v>
+        <v>519783.8427325516</v>
       </c>
       <c r="O2" t="n">
-        <v>519783.8427325515</v>
+        <v>519783.8427325517</v>
       </c>
       <c r="P2" t="n">
-        <v>519783.8427325515</v>
+        <v>519783.8427325516</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336678</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>211122.8311070121</v>
+        <v>211122.8311070118</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275375.8637332334</v>
+        <v>275375.8637332332</v>
       </c>
       <c r="C4" t="n">
-        <v>275375.8637332334</v>
+        <v>275375.8637332332</v>
       </c>
       <c r="D4" t="n">
-        <v>275375.8637332334</v>
+        <v>275375.8637332333</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>93156.93313548899</v>
+        <v>93156.93313548897</v>
       </c>
       <c r="J5" t="n">
         <v>93156.93313548899</v>
       </c>
       <c r="K5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548899</v>
       </c>
       <c r="L5" t="n">
         <v>93156.93313548899</v>
       </c>
       <c r="M5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548899</v>
       </c>
       <c r="N5" t="n">
         <v>93156.93313548897</v>
@@ -26511,7 +26511,7 @@
         <v>93156.93313548899</v>
       </c>
       <c r="P5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.93313548899</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369515.372007301</v>
+        <v>-369515.3720073011</v>
       </c>
       <c r="C6" t="n">
-        <v>221841.5305135445</v>
+        <v>221841.5305135443</v>
       </c>
       <c r="D6" t="n">
-        <v>221841.5305135443</v>
+        <v>221841.5305135447</v>
       </c>
       <c r="E6" t="n">
-        <v>-252695.1355814467</v>
+        <v>-256171.3248795075</v>
       </c>
       <c r="F6" t="n">
-        <v>374439.508052221</v>
+        <v>370963.3187541602</v>
       </c>
       <c r="G6" t="n">
-        <v>374439.5080522214</v>
+        <v>370963.3187541601</v>
       </c>
       <c r="H6" t="n">
-        <v>374439.5080522212</v>
+        <v>370963.3187541602</v>
       </c>
       <c r="I6" t="n">
-        <v>203779.7062169347</v>
+        <v>202504.9154048669</v>
       </c>
       <c r="J6" t="n">
-        <v>365837.5925954022</v>
+        <v>364562.8017833339</v>
       </c>
       <c r="K6" t="n">
-        <v>414902.5373239471</v>
+        <v>413627.7465118786</v>
       </c>
       <c r="L6" t="n">
-        <v>414902.5373239469</v>
+        <v>413627.7465118787</v>
       </c>
       <c r="M6" t="n">
-        <v>254446.0954560694</v>
+        <v>253171.3046440014</v>
       </c>
       <c r="N6" t="n">
-        <v>414902.5373239467</v>
+        <v>413627.7465118787</v>
       </c>
       <c r="O6" t="n">
-        <v>414902.5373239467</v>
+        <v>413627.7465118787</v>
       </c>
       <c r="P6" t="n">
-        <v>414902.5373239467</v>
+        <v>413627.7465118787</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1071.263158277363</v>
+        <v>1071.263158277362</v>
       </c>
       <c r="J4" t="n">
         <v>1071.263158277363</v>
       </c>
       <c r="K4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="L4" t="n">
         <v>1071.263158277363</v>
       </c>
       <c r="M4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="N4" t="n">
         <v>1071.263158277362</v>
@@ -26831,7 +26831,7 @@
         <v>1071.263158277363</v>
       </c>
       <c r="P4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803938</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.138463624619404e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.7339926280481</v>
+        <v>195.7339926280479</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>239.8617028750703</v>
+        <v>239.8617028750698</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>224.3190337330307</v>
       </c>
       <c r="G2" t="n">
-        <v>237.4168669630896</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988694</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871007</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>40.17045128692706</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715721</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>53.4794786622586</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917639</v>
+        <v>113.5251023861577</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378025</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>236.141606059253</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753918</v>
+        <v>253.068807709298</v>
       </c>
       <c r="G5" t="n">
-        <v>356.0121383413536</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988715</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>88.562968193694</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>54.20094727006568</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098472</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27824,22 +27824,22 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917659</v>
+        <v>189.0276590649155</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378045</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>221.2657951255725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271709</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753918</v>
+        <v>338.4250517093247</v>
       </c>
       <c r="G8" t="n">
-        <v>259.2905951976452</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988717</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.712351489734</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>147.6727226977729</v>
       </c>
       <c r="T9" t="n">
-        <v>7.88401062568164</v>
+        <v>7.884010625681285</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377132</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W9" t="n">
-        <v>242.0618373917617</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>63.19210583612775</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
@@ -28070,10 +28070,10 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>200.8324909281318</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292682</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32797,16 +32797,16 @@
         <v>600.3698761124787</v>
       </c>
       <c r="M24" t="n">
-        <v>700.6033278056334</v>
+        <v>234.672746319776</v>
       </c>
       <c r="N24" t="n">
         <v>719.146213182383</v>
       </c>
       <c r="O24" t="n">
-        <v>585.9786255965041</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>528.0053260516129</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33031,10 +33031,10 @@
         <v>446.4966716257575</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M27" t="n">
-        <v>483.5124392335528</v>
+        <v>234.672746319776</v>
       </c>
       <c r="N27" t="n">
         <v>719.146213182383</v>
@@ -33046,7 +33046,7 @@
         <v>528.0053260516129</v>
       </c>
       <c r="Q27" t="n">
-        <v>352.9575775048496</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,10 +33265,10 @@
         <v>261.2376022894435</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>442.3815864725046</v>
       </c>
       <c r="L30" t="n">
-        <v>443.0945272780198</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>700.6033278056334</v>
@@ -33508,16 +33508,16 @@
         <v>600.3698761124787</v>
       </c>
       <c r="M33" t="n">
-        <v>700.6033278056334</v>
+        <v>234.672746319776</v>
       </c>
       <c r="N33" t="n">
         <v>719.146213182383</v>
       </c>
       <c r="O33" t="n">
-        <v>585.9786255965041</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>528.0053260516129</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,16 +33739,16 @@
         <v>261.2376022894435</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L36" t="n">
         <v>600.3698761124787</v>
       </c>
       <c r="M36" t="n">
-        <v>700.6033278056334</v>
+        <v>234.672746319776</v>
       </c>
       <c r="N36" t="n">
-        <v>348.8950609290966</v>
+        <v>719.146213182383</v>
       </c>
       <c r="O36" t="n">
         <v>657.8782884450789</v>
@@ -33757,7 +33757,7 @@
         <v>528.0053260516129</v>
       </c>
       <c r="Q36" t="n">
-        <v>352.9575775048496</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,13 +33979,13 @@
         <v>446.4966716257575</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M39" t="n">
-        <v>483.5124392335528</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>719.146213182383</v>
+        <v>598.7091221613131</v>
       </c>
       <c r="O39" t="n">
         <v>657.8782884450789</v>
@@ -34213,13 +34213,13 @@
         <v>261.2376022894435</v>
       </c>
       <c r="K42" t="n">
-        <v>374.597008777183</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L42" t="n">
-        <v>600.3698761124787</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>700.6033278056334</v>
+        <v>457.5156283556167</v>
       </c>
       <c r="N42" t="n">
         <v>719.146213182383</v>
@@ -34228,13 +34228,13 @@
         <v>657.8782884450789</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>528.0053260516129</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>352.9575775048496</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>171.6763148418998</v>
       </c>
       <c r="S42" t="n">
         <v>51.35979043200374</v>
@@ -34450,7 +34450,7 @@
         <v>261.2376022894435</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L45" t="n">
         <v>600.3698761124787</v>
@@ -34462,10 +34462,10 @@
         <v>719.146213182383</v>
       </c>
       <c r="O45" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965041</v>
       </c>
       <c r="P45" t="n">
-        <v>370.7299772171547</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848237</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>123.3445726863781</v>
+        <v>177.8598224851405</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.45844197068192</v>
+        <v>28.45844197068243</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O7" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062394</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061144</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>177.8598224851386</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>164.3820236732829</v>
+        <v>147.1624568175057</v>
       </c>
       <c r="P10" t="n">
         <v>116.8989542469472</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>461.8154963326045</v>
       </c>
       <c r="M24" t="n">
-        <v>558.4692938836151</v>
+        <v>92.53871239775768</v>
       </c>
       <c r="N24" t="n">
         <v>587.8045010990497</v>
       </c>
       <c r="O24" t="n">
-        <v>443.3823811520597</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>394.0309186372826</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>308.6552326513985</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M27" t="n">
-        <v>341.3784053115345</v>
+        <v>92.53871239775768</v>
       </c>
       <c r="N27" t="n">
         <v>587.8045010990497</v>
@@ -36694,7 +36694,7 @@
         <v>394.0309186372826</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.9758034188281</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>304.5401474981456</v>
       </c>
       <c r="L30" t="n">
-        <v>304.5401474981456</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>558.4692938836151</v>
@@ -37156,16 +37156,16 @@
         <v>461.8154963326045</v>
       </c>
       <c r="M33" t="n">
-        <v>558.4692938836151</v>
+        <v>92.53871239775768</v>
       </c>
       <c r="N33" t="n">
         <v>587.8045010990497</v>
       </c>
       <c r="O33" t="n">
-        <v>443.3823811520597</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>394.0309186372826</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L36" t="n">
         <v>461.8154963326045</v>
       </c>
       <c r="M36" t="n">
-        <v>558.4692938836151</v>
+        <v>92.53871239775768</v>
       </c>
       <c r="N36" t="n">
-        <v>217.5533488457634</v>
+        <v>587.8045010990497</v>
       </c>
       <c r="O36" t="n">
         <v>515.2820440006344</v>
@@ -37405,7 +37405,7 @@
         <v>394.0309186372826</v>
       </c>
       <c r="Q36" t="n">
-        <v>212.9758034188281</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>308.6552326513985</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M39" t="n">
-        <v>341.3784053115345</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>587.8045010990497</v>
+        <v>467.3674100779797</v>
       </c>
       <c r="O39" t="n">
         <v>515.2820440006344</v>
@@ -37861,13 +37861,13 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K42" t="n">
-        <v>236.755569802824</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L42" t="n">
-        <v>461.8154963326045</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>558.4692938836151</v>
+        <v>315.3815944335984</v>
       </c>
       <c r="N42" t="n">
         <v>587.8045010990497</v>
@@ -37876,13 +37876,13 @@
         <v>515.2820440006344</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>394.0309186372826</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>212.9758034188281</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.99681087793587</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L45" t="n">
         <v>461.8154963326045</v>
@@ -38110,10 +38110,10 @@
         <v>587.8045010990497</v>
       </c>
       <c r="O45" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520597</v>
       </c>
       <c r="P45" t="n">
-        <v>236.7555698028244</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692554.574051498</v>
+        <v>1704205.608641446</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9544061.968005776</v>
+        <v>9544061.968005778</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>133.8333590606435</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>182.5570120086808</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663203</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>77.97021545617187</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.2032171150458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>93.25515340933624</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>93.2551534093385</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="F5" t="n">
-        <v>153.8072380324135</v>
+        <v>153.807238032413</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368128</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.97021545617334</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2613113589519</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>85.62106172970687</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.75259673058072</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>68.4509940323867</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>37.11181591693514</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>104.8814412733143</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.097521993176758</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>116.6889117148671</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>85.69050740845918</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>158.1294407168337</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>224.2966770777428</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>46.50187133648316</v>
+        <v>216.7787438998079</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>5.732180395783987</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>95.93651183305538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>106.7082616683667</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.9587520219479</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>120.6088074159611</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>87.61271317745567</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>84.69473660442775</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486472</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>173.5578851713665</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>210.0946544764325</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>190.3844036549952</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.1348553313306</v>
+        <v>284.1770445382736</v>
       </c>
       <c r="H23" t="n">
-        <v>160.5914179078233</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I23" t="n">
         <v>11.24111167928652</v>
@@ -2493,7 +2493,7 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H25" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>85.7378622522384</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>163.5413973355517</v>
       </c>
       <c r="U25" t="n">
-        <v>21.59413115639144</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>342.0483426755588</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H26" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>200.4734453045276</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>345.0637316859613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>94.17925589982863</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.6178439565572</v>
+        <v>39.76486200923993</v>
       </c>
       <c r="T28" t="n">
         <v>218.04083490674</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.1348553313306</v>
+        <v>192.9200902154718</v>
       </c>
       <c r="H29" t="n">
         <v>286.5492287008803</v>
@@ -2845,13 +2845,13 @@
         <v>91.25695432280241</v>
       </c>
       <c r="T29" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V29" t="n">
-        <v>160.996270382881</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>85.7378622522384</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S31" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>218.04083490674</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>186.3968126163949</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>158.596093953513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>33.71745721727382</v>
       </c>
       <c r="U32" t="n">
-        <v>124.9744115400765</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.2086215156122</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>94.17925589982863</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U35" t="n">
-        <v>136.215523219363</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>1.321002372551402</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.45121145460053</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>218.04083490674</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1925856817478</v>
+        <v>29.26295163868829</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.1348553313306</v>
       </c>
       <c r="H38" t="n">
-        <v>286.5492287008803</v>
+        <v>251.5948599439739</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4289470006110571</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>22.48287435954864</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T40" t="n">
         <v>218.04083490674</v>
@@ -3720,7 +3720,7 @@
         <v>286.1925856817478</v>
       </c>
       <c r="V40" t="n">
-        <v>162.525914989789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>79.03728406122201</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.6178439565572</v>
+        <v>128.4291065727008</v>
       </c>
       <c r="T43" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>239.3150809779513</v>
+        <v>38.84163567342411</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U44" t="n">
         <v>250.9322223331321</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,7 +4152,7 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>52.75211582589756</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U46" t="n">
-        <v>248.9488469329466</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207814</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207814</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207814</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207814</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897907</v>
+        <v>28.23218154912179</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644764</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112384</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652811</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201484</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372665</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372665</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207814</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207814</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207814</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207814</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207814</v>
+        <v>359.7826784871771</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.7266032801969</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906982</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906982</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906982</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476361</v>
+        <v>649.2101578476342</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017075</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652811</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652811</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652811</v>
+        <v>722.919292284327</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652811</v>
+        <v>722.919292284327</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652811</v>
+        <v>722.919292284327</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652811</v>
+        <v>722.919292284327</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652811</v>
+        <v>722.919292284327</v>
       </c>
       <c r="X3" t="n">
-        <v>560.682563648796</v>
+        <v>722.919292284327</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.9419403002649</v>
+        <v>722.919292284327</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.5283733287313</v>
+        <v>652.5283733287314</v>
       </c>
       <c r="C4" t="n">
-        <v>483.5921904008244</v>
+        <v>483.5921904008245</v>
       </c>
       <c r="D4" t="n">
         <v>333.4755509884887</v>
@@ -4476,64 +4476,64 @@
         <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818522</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818522</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818522</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818522</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>295.552956263964</v>
+        <v>373.5399563830971</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242531</v>
+        <v>559.1902876777536</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608033</v>
+        <v>721.9284911143037</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652811</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846288</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846288</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="S4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="T4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="U4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="V4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="W4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="X4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.5283733287313</v>
+        <v>746.7254979846266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="C5" t="n">
-        <v>549.2024635036628</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="D5" t="n">
-        <v>359.7826784871779</v>
+        <v>549.2024635036616</v>
       </c>
       <c r="E5" t="n">
-        <v>359.7826784871779</v>
+        <v>359.7826784871771</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897905</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079187</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="S5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="T5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="U5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="V5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="W5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="X5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201462</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>644.1614988942544</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C6" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D6" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024203</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140248</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476342</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R6" t="n">
-        <v>722.9192922843284</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S6" t="n">
-        <v>722.9192922843284</v>
+        <v>722.919292284327</v>
       </c>
       <c r="T6" t="n">
-        <v>722.9192922843284</v>
+        <v>722.919292284327</v>
       </c>
       <c r="U6" t="n">
-        <v>722.9192922843284</v>
+        <v>533.4995072678423</v>
       </c>
       <c r="V6" t="n">
-        <v>722.9192922843284</v>
+        <v>344.0797222513577</v>
       </c>
       <c r="W6" t="n">
-        <v>722.9192922843284</v>
+        <v>154.6599372348732</v>
       </c>
       <c r="X6" t="n">
-        <v>722.9192922843284</v>
+        <v>154.6599372348732</v>
       </c>
       <c r="Y6" t="n">
-        <v>722.9192922843284</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357.7253322484279</v>
+        <v>568.4538838350392</v>
       </c>
       <c r="C7" t="n">
-        <v>188.7891493205209</v>
+        <v>399.5177009071323</v>
       </c>
       <c r="D7" t="n">
-        <v>38.67250990818521</v>
+        <v>249.4010614947966</v>
       </c>
       <c r="E7" t="n">
-        <v>38.67250990818521</v>
+        <v>101.4879679124034</v>
       </c>
       <c r="F7" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G7" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H7" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I7" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K7" t="n">
-        <v>43.17590452428121</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394163</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M7" t="n">
-        <v>401.7138139340732</v>
+        <v>285.9838492295946</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287301</v>
+        <v>471.6341805242512</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652803</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.725497984628</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R7" t="n">
-        <v>746.725497984628</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S7" t="n">
-        <v>728.7935820951525</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T7" t="n">
-        <v>728.7935820951525</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U7" t="n">
-        <v>728.7935820951525</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V7" t="n">
-        <v>728.7935820951525</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W7" t="n">
-        <v>728.7935820951525</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X7" t="n">
-        <v>539.3737970786676</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.3737970786676</v>
+        <v>750.1023486652789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400.3029543659131</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C8" t="n">
-        <v>400.3029543659131</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D8" t="n">
-        <v>400.3029543659131</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E8" t="n">
-        <v>400.3029543659131</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513811</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823979</v>
+        <v>578.242639237264</v>
       </c>
       <c r="T8" t="n">
-        <v>589.7227393823979</v>
+        <v>578.242639237264</v>
       </c>
       <c r="U8" t="n">
-        <v>400.3029543659131</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="V8" t="n">
-        <v>400.3029543659131</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="W8" t="n">
-        <v>400.3029543659131</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="X8" t="n">
-        <v>400.3029543659131</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="Y8" t="n">
-        <v>400.3029543659131</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.5412281508565</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C9" t="n">
-        <v>152.5412281508565</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D9" t="n">
-        <v>152.5412281508565</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E9" t="n">
-        <v>152.5412281508565</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024198</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843279</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S9" t="n">
-        <v>720.8005832003109</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T9" t="n">
-        <v>531.3807981838261</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U9" t="n">
-        <v>531.3807981838261</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V9" t="n">
-        <v>341.9610131673413</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W9" t="n">
-        <v>152.5412281508565</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X9" t="n">
-        <v>152.5412281508565</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Y9" t="n">
-        <v>152.5412281508565</v>
+        <v>750.1023486652789</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.7496448787899</v>
+        <v>628.8579103938516</v>
       </c>
       <c r="C10" t="n">
-        <v>470.7496448787899</v>
+        <v>459.9217274659447</v>
       </c>
       <c r="D10" t="n">
-        <v>320.6330054664542</v>
+        <v>309.805088053609</v>
       </c>
       <c r="E10" t="n">
-        <v>320.6330054664542</v>
+        <v>161.8919944712159</v>
       </c>
       <c r="F10" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G10" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745584</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M10" t="n">
-        <v>465.2530182692152</v>
+        <v>401.7138139340723</v>
       </c>
       <c r="N10" t="n">
-        <v>488.6815517114714</v>
+        <v>587.3641452287288</v>
       </c>
       <c r="O10" t="n">
-        <v>634.372383960802</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="V10" t="n">
-        <v>557.3057129681426</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="W10" t="n">
-        <v>470.7496448787899</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7496448787899</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7496448787899</v>
+        <v>746.7254979846265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1381.278680221567</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.551972426786</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D11" t="n">
         <v>863.2862738200351</v>
@@ -5029,19 +5029,19 @@
         <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5050,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5062,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5074,19 +5074,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792695</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.48361052258</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.017852261501</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y11" t="n">
-        <v>1767.878520285689</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.3518203322459</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C13" t="n">
         <v>825.3518203322459</v>
@@ -5187,16 +5187,16 @@
         <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408147</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X13" t="n">
-        <v>825.3518203322459</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y13" t="n">
-        <v>825.3518203322459</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>2866.097597267229</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>2769.192029759092</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X14" t="n">
-        <v>2395.726271498012</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y14" t="n">
-        <v>2005.586939522201</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5433,19 +5433,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658018</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408143</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3234075408143</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y16" t="n">
-        <v>786.5064863065235</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1712.341567565138</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C17" t="n">
-        <v>1343.379050624726</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D17" t="n">
-        <v>985.1133520179758</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E17" t="n">
-        <v>599.3250994197315</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>188.3391946301239</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3237.108131530933</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2983.57765480477</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>2652.514767461199</v>
       </c>
       <c r="W17" t="n">
-        <v>2862.546497866151</v>
+        <v>2652.514767461199</v>
       </c>
       <c r="X17" t="n">
-        <v>2489.080739605071</v>
+        <v>2279.049009200119</v>
       </c>
       <c r="Y17" t="n">
-        <v>2098.94140762926</v>
+        <v>1888.909677224308</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.0623554265549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983421</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003247</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>333.7108202567946</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
         <v>1278.358723975039</v>
@@ -5740,16 +5740,16 @@
         <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
@@ -5761,43 +5761,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3150.294826486578</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>3150.294826486578</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V20" t="n">
-        <v>3150.294826486578</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W20" t="n">
-        <v>2797.526171216464</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.044369546818</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V22" t="n">
-        <v>986.3598813409312</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W22" t="n">
-        <v>696.9427113039706</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="X22" t="n">
-        <v>468.9531604059532</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>673.5468960141491</v>
       </c>
       <c r="G23" t="n">
-        <v>259.2692643663403</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H23" t="n">
         <v>97.05571092409457</v>
@@ -6077,13 +6077,13 @@
         <v>981.5230502229011</v>
       </c>
       <c r="M24" t="n">
-        <v>1073.136375496681</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N24" t="n">
-        <v>1655.06283158474</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O24" t="n">
-        <v>2165.192055145369</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P24" t="n">
         <v>2555.282664596279</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1096.55445254542</v>
+        <v>953.5071257531802</v>
       </c>
       <c r="C25" t="n">
-        <v>927.6182696175127</v>
+        <v>784.5709428252733</v>
       </c>
       <c r="D25" t="n">
-        <v>777.501630205177</v>
+        <v>634.4543034129375</v>
       </c>
       <c r="E25" t="n">
-        <v>629.5885366227839</v>
+        <v>486.5412098305444</v>
       </c>
       <c r="F25" t="n">
-        <v>482.6985891248735</v>
+        <v>339.6512623326341</v>
       </c>
       <c r="G25" t="n">
-        <v>315.3522807193157</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="H25" t="n">
         <v>172.3049539270763</v>
@@ -6177,22 +6177,22 @@
         <v>2292.898959353379</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.898959353379</v>
+        <v>2127.705628711407</v>
       </c>
       <c r="U25" t="n">
-        <v>2271.086705660054</v>
+        <v>1838.622208830854</v>
       </c>
       <c r="V25" t="n">
-        <v>2016.402217454167</v>
+        <v>1583.937720624967</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.985047417207</v>
+        <v>1583.937720624967</v>
       </c>
       <c r="X25" t="n">
-        <v>1498.995496519189</v>
+        <v>1355.94816972695</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.202917375659</v>
+        <v>1135.15559058342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1944.462205659025</v>
+        <v>1995.050839348631</v>
       </c>
       <c r="C26" t="n">
-        <v>1944.462205659025</v>
+        <v>1626.08832240822</v>
       </c>
       <c r="D26" t="n">
-        <v>1586.196507052274</v>
+        <v>1267.822623801469</v>
       </c>
       <c r="E26" t="n">
-        <v>1200.40825445403</v>
+        <v>922.3192473615109</v>
       </c>
       <c r="F26" t="n">
-        <v>789.4223496644223</v>
+        <v>511.3333425719033</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1447180166136</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="H26" t="n">
-        <v>85.70105266218901</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I26" t="n">
         <v>85.70105266218901</v>
@@ -6241,7 +6241,7 @@
         <v>2703.670580477194</v>
       </c>
       <c r="O26" t="n">
-        <v>3337.896060373234</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P26" t="n">
         <v>3844.691833280482</v>
@@ -6253,25 +6253,25 @@
         <v>4285.052633109451</v>
       </c>
       <c r="S26" t="n">
-        <v>4192.873891369246</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T26" t="n">
-        <v>3990.375461768713</v>
+        <v>4082.554203508918</v>
       </c>
       <c r="U26" t="n">
-        <v>3736.908570523125</v>
+        <v>3829.08731226333</v>
       </c>
       <c r="V26" t="n">
-        <v>3405.845683179554</v>
+        <v>3498.024424919759</v>
       </c>
       <c r="W26" t="n">
-        <v>3053.07702790944</v>
+        <v>3145.255769649645</v>
       </c>
       <c r="X26" t="n">
-        <v>2679.61126964836</v>
+        <v>2771.790011388565</v>
       </c>
       <c r="Y26" t="n">
-        <v>2331.062045723147</v>
+        <v>2381.650679412753</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>981.5230502229011</v>
       </c>
       <c r="M27" t="n">
-        <v>1073.136375496681</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N27" t="n">
-        <v>1655.06283158474</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O27" t="n">
-        <v>2165.192055145369</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P27" t="n">
         <v>2555.282664596279</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>349.7677971050744</v>
+        <v>568.8734914935641</v>
       </c>
       <c r="C28" t="n">
-        <v>180.8316141771674</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="D28" t="n">
-        <v>180.8316141771674</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="E28" t="n">
-        <v>180.8316141771674</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="F28" t="n">
-        <v>180.8316141771674</v>
+        <v>253.0473610677468</v>
       </c>
       <c r="G28" t="n">
         <v>85.70105266218901</v>
@@ -6408,28 +6408,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R28" t="n">
-        <v>2219.099307335916</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S28" t="n">
-        <v>2033.626737682828</v>
+        <v>2252.732432071318</v>
       </c>
       <c r="T28" t="n">
-        <v>1813.383470100262</v>
+        <v>2032.489164488753</v>
       </c>
       <c r="U28" t="n">
-        <v>1524.300050219709</v>
+        <v>1743.405744608199</v>
       </c>
       <c r="V28" t="n">
-        <v>1269.615562013822</v>
+        <v>1488.721256402312</v>
       </c>
       <c r="W28" t="n">
-        <v>980.1983919768616</v>
+        <v>1199.304086365351</v>
       </c>
       <c r="X28" t="n">
-        <v>752.2088410788442</v>
+        <v>971.3145354673339</v>
       </c>
       <c r="Y28" t="n">
-        <v>531.4162619353141</v>
+        <v>750.5219563238038</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2324.779380861342</v>
+        <v>2105.370527208959</v>
       </c>
       <c r="C29" t="n">
-        <v>1955.81686392093</v>
+        <v>1736.408010268548</v>
       </c>
       <c r="D29" t="n">
-        <v>1597.55116531418</v>
+        <v>1378.142311661797</v>
       </c>
       <c r="E29" t="n">
-        <v>1211.762912715935</v>
+        <v>992.3540590635528</v>
       </c>
       <c r="F29" t="n">
-        <v>800.7770079263279</v>
+        <v>581.3681542739453</v>
       </c>
       <c r="G29" t="n">
         <v>386.4993762785192</v>
@@ -6493,22 +6493,22 @@
         <v>4192.873891369246</v>
       </c>
       <c r="T29" t="n">
-        <v>3990.375461768713</v>
+        <v>4192.873891369246</v>
       </c>
       <c r="U29" t="n">
-        <v>3990.375461768713</v>
+        <v>3939.407000123658</v>
       </c>
       <c r="V29" t="n">
-        <v>3827.75296643247</v>
+        <v>3608.344112780087</v>
       </c>
       <c r="W29" t="n">
-        <v>3474.984311162355</v>
+        <v>3255.575457509973</v>
       </c>
       <c r="X29" t="n">
-        <v>3101.518552901276</v>
+        <v>2882.109699248893</v>
       </c>
       <c r="Y29" t="n">
-        <v>2711.379220925464</v>
+        <v>2491.970367273081</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>218.7570285287381</v>
       </c>
       <c r="K30" t="n">
-        <v>520.2517745519023</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L30" t="n">
-        <v>520.2517745519023</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M30" t="n">
-        <v>1073.136375496681</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N30" t="n">
-        <v>1655.06283158474</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O30" t="n">
-        <v>2165.192055145369</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P30" t="n">
         <v>2555.282664596279</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.55445254542</v>
+        <v>636.0441779352867</v>
       </c>
       <c r="C31" t="n">
-        <v>927.6182696175127</v>
+        <v>467.1079950073798</v>
       </c>
       <c r="D31" t="n">
-        <v>777.501630205177</v>
+        <v>467.1079950073798</v>
       </c>
       <c r="E31" t="n">
-        <v>629.5885366227839</v>
+        <v>319.1949014249867</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6985891248735</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="G31" t="n">
-        <v>315.3522807193157</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="H31" t="n">
         <v>172.3049539270763</v>
@@ -6645,28 +6645,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R31" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S31" t="n">
-        <v>2107.426389700291</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="T31" t="n">
-        <v>1887.183122117725</v>
+        <v>1998.856039753351</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.183122117725</v>
+        <v>1810.576431049921</v>
       </c>
       <c r="V31" t="n">
-        <v>1887.183122117725</v>
+        <v>1555.891942844034</v>
       </c>
       <c r="W31" t="n">
-        <v>1726.985047417207</v>
+        <v>1266.474772807074</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.995496519189</v>
+        <v>1038.485221909056</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.202917375659</v>
+        <v>817.6926427655264</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>85.70105266218901</v>
       </c>
       <c r="J32" t="n">
-        <v>340.6969722734625</v>
+        <v>340.6969722734634</v>
       </c>
       <c r="K32" t="n">
-        <v>773.6082731436604</v>
+        <v>773.6082731436613</v>
       </c>
       <c r="L32" t="n">
-        <v>1347.57478436688</v>
+        <v>1347.574784366881</v>
       </c>
       <c r="M32" t="n">
         <v>2017.892557053756</v>
@@ -6715,10 +6715,10 @@
         <v>2703.670580477194</v>
       </c>
       <c r="O32" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P32" t="n">
-        <v>3844.691833280482</v>
+        <v>3844.691833280483</v>
       </c>
       <c r="Q32" t="n">
         <v>4177.101606109322</v>
@@ -6727,10 +6727,10 @@
         <v>4285.052633109451</v>
       </c>
       <c r="S32" t="n">
-        <v>4285.052633109451</v>
+        <v>4192.873891369246</v>
       </c>
       <c r="T32" t="n">
-        <v>4285.052633109451</v>
+        <v>4158.81585377604</v>
       </c>
       <c r="U32" t="n">
         <v>4158.81585377604</v>
@@ -6788,13 +6788,13 @@
         <v>981.5230502229011</v>
       </c>
       <c r="M33" t="n">
-        <v>1073.136375496681</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N33" t="n">
-        <v>1655.06283158474</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O33" t="n">
-        <v>2165.192055145369</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P33" t="n">
         <v>2555.282664596279</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>383.7307856569179</v>
+        <v>349.7677971050744</v>
       </c>
       <c r="C34" t="n">
-        <v>383.7307856569179</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="D34" t="n">
-        <v>233.6141462445821</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="E34" t="n">
-        <v>85.70105266218901</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="F34" t="n">
-        <v>85.70105266218901</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="G34" t="n">
-        <v>85.70105266218901</v>
+        <v>180.8316141771674</v>
       </c>
       <c r="H34" t="n">
         <v>85.70105266218901</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2313.424722599436</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C35" t="n">
-        <v>1944.462205659025</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D35" t="n">
-        <v>1586.196507052274</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E35" t="n">
-        <v>1200.40825445403</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F35" t="n">
-        <v>789.4223496644223</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1447180166136</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H35" t="n">
-        <v>85.70105266218901</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I35" t="n">
         <v>85.70105266218901</v>
@@ -6967,22 +6967,22 @@
         <v>4285.052633109451</v>
       </c>
       <c r="T35" t="n">
-        <v>4285.052633109451</v>
+        <v>4082.554203508918</v>
       </c>
       <c r="U35" t="n">
-        <v>4147.461195514134</v>
+        <v>3829.08731226333</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.398308170564</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.62965290045</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X35" t="n">
-        <v>3090.16389463937</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y35" t="n">
-        <v>2700.024562663558</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="36">
@@ -7025,13 +7025,13 @@
         <v>981.5230502229011</v>
       </c>
       <c r="M36" t="n">
-        <v>1073.136375496681</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N36" t="n">
-        <v>1655.06283158474</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O36" t="n">
-        <v>2165.192055145369</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P36" t="n">
         <v>2555.282664596279</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.7076395724351</v>
+        <v>1096.55445254542</v>
       </c>
       <c r="C37" t="n">
-        <v>382.7076395724351</v>
+        <v>927.6182696175127</v>
       </c>
       <c r="D37" t="n">
-        <v>232.5910001600994</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E37" t="n">
-        <v>232.5910001600994</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F37" t="n">
-        <v>85.70105266218901</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G37" t="n">
-        <v>85.70105266218901</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H37" t="n">
-        <v>85.70105266218901</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I37" t="n">
         <v>85.70105266218901</v>
@@ -7119,28 +7119,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R37" t="n">
-        <v>2252.039149803277</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S37" t="n">
-        <v>2066.566580150189</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="T37" t="n">
-        <v>1846.323312567623</v>
+        <v>2072.655691770813</v>
       </c>
       <c r="U37" t="n">
-        <v>1557.23989268707</v>
+        <v>2043.097154762037</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.555404481183</v>
+        <v>1788.41266655615</v>
       </c>
       <c r="W37" t="n">
-        <v>1013.138234444222</v>
+        <v>1498.995496519189</v>
       </c>
       <c r="X37" t="n">
-        <v>785.148683546205</v>
+        <v>1498.995496519189</v>
       </c>
       <c r="Y37" t="n">
-        <v>564.3561044026749</v>
+        <v>1278.202917375659</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1902.872097608426</v>
+        <v>2289.471937672547</v>
       </c>
       <c r="C38" t="n">
-        <v>1533.909580668014</v>
+        <v>1920.509420732136</v>
       </c>
       <c r="D38" t="n">
-        <v>1175.643882061264</v>
+        <v>1562.243722125385</v>
       </c>
       <c r="E38" t="n">
-        <v>789.8556294630193</v>
+        <v>1176.455469527141</v>
       </c>
       <c r="F38" t="n">
-        <v>789.8556294630193</v>
+        <v>765.4695647375336</v>
       </c>
       <c r="G38" t="n">
-        <v>375.5779978152106</v>
+        <v>351.1919330897248</v>
       </c>
       <c r="H38" t="n">
-        <v>86.13433246078603</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I38" t="n">
         <v>85.701052662189</v>
@@ -7183,10 +7183,10 @@
         <v>1347.574784366879</v>
       </c>
       <c r="M38" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053754</v>
       </c>
       <c r="N38" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477192</v>
       </c>
       <c r="O38" t="n">
         <v>3337.896060373233</v>
@@ -7265,16 +7265,16 @@
         <v>981.5230502229011</v>
       </c>
       <c r="N39" t="n">
-        <v>1444.216786200101</v>
+        <v>1418.479943430944</v>
       </c>
       <c r="O39" t="n">
-        <v>1954.346009760729</v>
+        <v>1928.609166991572</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.436619211639</v>
+        <v>2318.699776442482</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="R39" t="n">
         <v>2555.282664596279</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.5569160827351</v>
+        <v>570.5603762486045</v>
       </c>
       <c r="C40" t="n">
-        <v>530.6207331548283</v>
+        <v>570.5603762486045</v>
       </c>
       <c r="D40" t="n">
-        <v>380.5040937424925</v>
+        <v>547.8504021480503</v>
       </c>
       <c r="E40" t="n">
-        <v>232.5910001600994</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="F40" t="n">
-        <v>85.701052662189</v>
+        <v>253.0473610677468</v>
       </c>
       <c r="G40" t="n">
         <v>85.701052662189</v>
@@ -7356,28 +7356,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R40" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S40" t="n">
-        <v>2292.898959353379</v>
+        <v>2033.626737682828</v>
       </c>
       <c r="T40" t="n">
-        <v>2072.655691770813</v>
+        <v>1813.383470100262</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.57227189026</v>
+        <v>1524.300050219709</v>
       </c>
       <c r="V40" t="n">
-        <v>1619.404680991483</v>
+        <v>1269.615562013822</v>
       </c>
       <c r="W40" t="n">
-        <v>1329.987510954522</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="X40" t="n">
-        <v>1101.997960056505</v>
+        <v>752.2088410788442</v>
       </c>
       <c r="Y40" t="n">
-        <v>881.2053809129749</v>
+        <v>752.2088410788442</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>85.70105266218901</v>
       </c>
       <c r="J41" t="n">
-        <v>340.696972273463</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K41" t="n">
-        <v>773.6082731436609</v>
+        <v>773.6082731436604</v>
       </c>
       <c r="L41" t="n">
         <v>1347.57478436688</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>712.6508690030901</v>
+        <v>699.5569160827351</v>
       </c>
       <c r="C43" t="n">
-        <v>712.6508690030901</v>
+        <v>530.6207331548283</v>
       </c>
       <c r="D43" t="n">
-        <v>562.5342295907543</v>
+        <v>380.5040937424925</v>
       </c>
       <c r="E43" t="n">
-        <v>562.5342295907543</v>
+        <v>232.5910001600994</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6985891248735</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="G43" t="n">
-        <v>315.3522807193157</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="H43" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I43" t="n">
         <v>85.70105266218901</v>
@@ -7596,25 +7596,25 @@
         <v>2292.898959353379</v>
       </c>
       <c r="S43" t="n">
-        <v>2107.426389700291</v>
+        <v>2163.172589077923</v>
       </c>
       <c r="T43" t="n">
-        <v>1887.183122117725</v>
+        <v>2163.172589077923</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.183122117725</v>
+        <v>1874.08916919737</v>
       </c>
       <c r="V43" t="n">
-        <v>1632.498633911838</v>
+        <v>1619.404680991483</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.081463874877</v>
+        <v>1329.987510954522</v>
       </c>
       <c r="X43" t="n">
-        <v>1115.09191297686</v>
+        <v>1101.997960056505</v>
       </c>
       <c r="Y43" t="n">
-        <v>894.2993338333298</v>
+        <v>881.2053809129749</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2197.549268949164</v>
+        <v>1995.050839348631</v>
       </c>
       <c r="C44" t="n">
         <v>1955.81686392093</v>
@@ -7648,13 +7648,13 @@
         <v>85.70105266218901</v>
       </c>
       <c r="J44" t="n">
-        <v>340.6969722734625</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K44" t="n">
-        <v>773.6082731436604</v>
+        <v>773.60827314366</v>
       </c>
       <c r="L44" t="n">
-        <v>1347.57478436688</v>
+        <v>1347.574784366881</v>
       </c>
       <c r="M44" t="n">
         <v>2017.892557053756</v>
@@ -7678,22 +7678,22 @@
         <v>4285.052633109451</v>
       </c>
       <c r="T44" t="n">
-        <v>4285.052633109451</v>
+        <v>4082.554203508918</v>
       </c>
       <c r="U44" t="n">
-        <v>4031.585741863862</v>
+        <v>3829.08731226333</v>
       </c>
       <c r="V44" t="n">
-        <v>3700.522854520292</v>
+        <v>3498.024424919759</v>
       </c>
       <c r="W44" t="n">
-        <v>3347.754199250177</v>
+        <v>3145.255769649645</v>
       </c>
       <c r="X44" t="n">
-        <v>2974.288440989098</v>
+        <v>2771.790011388565</v>
       </c>
       <c r="Y44" t="n">
-        <v>2584.149109013286</v>
+        <v>2381.650679412753</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.9032244882929</v>
+        <v>841.0143683526254</v>
       </c>
       <c r="C46" t="n">
-        <v>697.9670415603861</v>
+        <v>841.0143683526254</v>
       </c>
       <c r="D46" t="n">
-        <v>547.8504021480503</v>
+        <v>690.8977289402897</v>
       </c>
       <c r="E46" t="n">
-        <v>399.9373085656572</v>
+        <v>542.9846353578965</v>
       </c>
       <c r="F46" t="n">
-        <v>253.0473610677468</v>
+        <v>396.0946878599862</v>
       </c>
       <c r="G46" t="n">
-        <v>85.70105266218901</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H46" t="n">
         <v>85.70105266218901</v>
@@ -7830,28 +7830,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R46" t="n">
-        <v>2292.898959353379</v>
+        <v>2239.613993872674</v>
       </c>
       <c r="S46" t="n">
-        <v>2292.898959353379</v>
+        <v>2054.141424219586</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.898959353379</v>
+        <v>1833.898156637021</v>
       </c>
       <c r="U46" t="n">
-        <v>2041.435477602928</v>
+        <v>1833.898156637021</v>
       </c>
       <c r="V46" t="n">
-        <v>1786.750989397041</v>
+        <v>1579.213668431134</v>
       </c>
       <c r="W46" t="n">
-        <v>1497.33381936008</v>
+        <v>1289.796498394173</v>
       </c>
       <c r="X46" t="n">
-        <v>1269.344268462063</v>
+        <v>1061.806947496156</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.551689318533</v>
+        <v>841.0143683526254</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>154.1946371899322</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777592</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>42.5627518647109</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457085</v>
+        <v>82.97369176944314</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709382</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8619,16 +8619,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457084</v>
+        <v>107.2331895657664</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
-        <v>145.8220995101052</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>207.1434510541739</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>103.4555813923921</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>179.207784052554</v>
+        <v>8.930911489229231</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>348.950861224899</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>253.3044568843576</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>73.12371851357062</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.6259013301469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>290.3129182374923</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>116.3052569621645</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>82.55208449420009</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696568</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>30.36008496825366</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>159.6364462020365</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>96.13859468159578</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>125.957810793057</v>
       </c>
       <c r="H23" t="n">
-        <v>125.957810793057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>183.6178439565572</v>
       </c>
       <c r="T25" t="n">
-        <v>218.04083490674</v>
+        <v>54.49943757118825</v>
       </c>
       <c r="U25" t="n">
-        <v>264.5984545253564</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>39.88202739670299</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I26" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.17420697009226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>71.49358942167359</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>141.616853524317</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>143.8529819473172</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>217.2147651158588</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9322223331321</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>166.7559880872539</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1925856817478</v>
+        <v>99.79577306535293</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>127.926904383078</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>200.4734453045276</v>
+        <v>166.7559880872538</v>
       </c>
       <c r="U32" t="n">
-        <v>125.9578107930556</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.62335866632506</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H34" t="n">
-        <v>141.616853524317</v>
+        <v>47.43759762448838</v>
       </c>
       <c r="I34" t="n">
         <v>85.7378622522384</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>91.25695432280241</v>
       </c>
       <c r="T35" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>114.7166991137691</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>326.4312560975835</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.6104440426874</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>256.9296340430595</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>34.95436875690635</v>
       </c>
       <c r="I38" t="n">
-        <v>10.81216467867546</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>126.1325986586637</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>141.616853524317</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>89.61172833403899</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>66.38376396170923</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>73.06165549728793</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.18873738385639</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>125.9578107930563</v>
+        <v>326.4312560975835</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>91.25695432280241</v>
       </c>
       <c r="T44" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>85.7378622522384</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.06165549728793</v>
+        <v>20.30953967139037</v>
       </c>
       <c r="S46" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>37.24373874880118</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744122.7541577013</v>
+        <v>744122.7541577014</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744122.7541577012</v>
+        <v>744122.7541577013</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744122.7541577012</v>
+        <v>744122.7541577014</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744122.7541577012</v>
+        <v>744122.7541577015</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838782.8890553969</v>
+        <v>838782.8890553967</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838782.8890553969</v>
+        <v>838782.8890553968</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838782.8890553969</v>
+        <v>838782.8890553968</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838782.8890553968</v>
+        <v>838782.8890553969</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>460346.0836107429</v>
       </c>
       <c r="F2" t="n">
-        <v>460346.0836107428</v>
+        <v>460346.0836107429</v>
       </c>
       <c r="G2" t="n">
+        <v>460346.083610743</v>
+      </c>
+      <c r="H2" t="n">
         <v>460346.0836107429</v>
       </c>
-      <c r="H2" t="n">
-        <v>460346.083610743</v>
-      </c>
       <c r="I2" t="n">
-        <v>519783.8427325516</v>
+        <v>519783.8427325514</v>
       </c>
       <c r="J2" t="n">
-        <v>519783.8427325515</v>
+        <v>519783.8427325517</v>
       </c>
       <c r="K2" t="n">
         <v>519783.8427325516</v>
@@ -26346,10 +26346,10 @@
         <v>519783.8427325516</v>
       </c>
       <c r="M2" t="n">
-        <v>519783.8427325517</v>
+        <v>519783.8427325516</v>
       </c>
       <c r="N2" t="n">
-        <v>519783.8427325516</v>
+        <v>519783.8427325514</v>
       </c>
       <c r="O2" t="n">
         <v>519783.8427325517</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>211122.8311070118</v>
+        <v>211122.8311070114</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275375.8637332332</v>
+        <v>275375.8637332334</v>
       </c>
       <c r="C4" t="n">
-        <v>275375.8637332332</v>
+        <v>275375.8637332334</v>
       </c>
       <c r="D4" t="n">
-        <v>275375.8637332333</v>
+        <v>275375.8637332334</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,10 +26484,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
         <v>93156.93313548897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369515.3720073011</v>
+        <v>-369515.372007301</v>
       </c>
       <c r="C6" t="n">
-        <v>221841.5305135443</v>
+        <v>221841.5305135442</v>
       </c>
       <c r="D6" t="n">
-        <v>221841.5305135447</v>
+        <v>221841.5305135445</v>
       </c>
       <c r="E6" t="n">
-        <v>-256171.3248795075</v>
+        <v>-253042.7545112529</v>
       </c>
       <c r="F6" t="n">
-        <v>370963.3187541602</v>
+        <v>374091.8891224152</v>
       </c>
       <c r="G6" t="n">
-        <v>370963.3187541601</v>
+        <v>374091.889122415</v>
       </c>
       <c r="H6" t="n">
-        <v>370963.3187541602</v>
+        <v>374091.8891224152</v>
       </c>
       <c r="I6" t="n">
-        <v>202504.9154048669</v>
+        <v>203652.2271357284</v>
       </c>
       <c r="J6" t="n">
-        <v>364562.8017833339</v>
+        <v>365710.1135141955</v>
       </c>
       <c r="K6" t="n">
-        <v>413627.7465118786</v>
+        <v>414775.0582427399</v>
       </c>
       <c r="L6" t="n">
-        <v>413627.7465118787</v>
+        <v>414775.0582427399</v>
       </c>
       <c r="M6" t="n">
-        <v>253171.3046440014</v>
+        <v>254318.6163748625</v>
       </c>
       <c r="N6" t="n">
-        <v>413627.7465118787</v>
+        <v>414775.0582427399</v>
       </c>
       <c r="O6" t="n">
-        <v>413627.7465118787</v>
+        <v>414775.0582427401</v>
       </c>
       <c r="P6" t="n">
-        <v>413627.7465118787</v>
+        <v>414775.05824274</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1285.510693221346</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
         <v>1071.263158277362</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.138463624619404e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.7339926280479</v>
+        <v>195.7339926280474</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>239.8617028750698</v>
+        <v>239.8617028750693</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>220.8496825600394</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>224.3190337330307</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637378</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871007</v>
+        <v>63.64367339871061</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510933</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>88.56296819369547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715721</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.4794786622586</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>86.57682677260105</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>113.5251023861577</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046875</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F5" t="n">
-        <v>253.068807709298</v>
+        <v>253.0688077092984</v>
       </c>
       <c r="G5" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.562968193694</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -27715,7 +27715,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>67.42138441835246</v>
       </c>
     </row>
     <row r="7">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>59.79998629322438</v>
       </c>
       <c r="G7" t="n">
         <v>167.0019352027142</v>
@@ -27797,7 +27797,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>189.0276590649155</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
         <v>223.7196734901001</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18406822271709</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>338.4250517093247</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871038</v>
+        <v>63.6436733987106</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>349.1261227391184</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>61.65174237655305</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
-        <v>147.6727226977729</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681285</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>63.14306846707019</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8324909281318</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292682</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114197</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,16 +32797,16 @@
         <v>600.3698761124787</v>
       </c>
       <c r="M24" t="n">
-        <v>234.672746319776</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N24" t="n">
         <v>719.146213182383</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965041</v>
       </c>
       <c r="P24" t="n">
-        <v>528.0053260516129</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,16 +33034,16 @@
         <v>600.3698761124787</v>
       </c>
       <c r="M27" t="n">
-        <v>234.672746319776</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N27" t="n">
         <v>719.146213182383</v>
       </c>
       <c r="O27" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965041</v>
       </c>
       <c r="P27" t="n">
-        <v>528.0053260516129</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,10 +33265,10 @@
         <v>261.2376022894435</v>
       </c>
       <c r="K30" t="n">
-        <v>442.3815864725046</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M30" t="n">
         <v>700.6033278056334</v>
@@ -33277,10 +33277,10 @@
         <v>719.146213182383</v>
       </c>
       <c r="O30" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965041</v>
       </c>
       <c r="P30" t="n">
-        <v>528.0053260516129</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33508,16 +33508,16 @@
         <v>600.3698761124787</v>
       </c>
       <c r="M33" t="n">
-        <v>234.672746319776</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N33" t="n">
         <v>719.146213182383</v>
       </c>
       <c r="O33" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965041</v>
       </c>
       <c r="P33" t="n">
-        <v>528.0053260516129</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,16 +33745,16 @@
         <v>600.3698761124787</v>
       </c>
       <c r="M36" t="n">
-        <v>234.672746319776</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N36" t="n">
         <v>719.146213182383</v>
       </c>
       <c r="O36" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965041</v>
       </c>
       <c r="P36" t="n">
-        <v>528.0053260516129</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33985,7 +33985,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>598.7091221613131</v>
+        <v>572.7123112833769</v>
       </c>
       <c r="O39" t="n">
         <v>657.8782884450789</v>
@@ -33997,7 +33997,7 @@
         <v>352.9575775048496</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.6763148418998</v>
       </c>
       <c r="S39" t="n">
         <v>51.35979043200374</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848237</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>177.8598224851405</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765002</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.45844197068243</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663201</v>
+        <v>99.0850748900546</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855722</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>123.3445726863779</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O10" t="n">
-        <v>147.1624568175057</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>461.8154963326045</v>
       </c>
       <c r="M24" t="n">
-        <v>92.53871239775768</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N24" t="n">
         <v>587.8045010990497</v>
       </c>
       <c r="O24" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520597</v>
       </c>
       <c r="P24" t="n">
-        <v>394.0309186372826</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>461.8154963326045</v>
       </c>
       <c r="M27" t="n">
-        <v>92.53871239775768</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N27" t="n">
         <v>587.8045010990497</v>
       </c>
       <c r="O27" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520597</v>
       </c>
       <c r="P27" t="n">
-        <v>394.0309186372826</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K30" t="n">
-        <v>304.5401474981456</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M30" t="n">
         <v>558.4692938836151</v>
@@ -36925,10 +36925,10 @@
         <v>587.8045010990497</v>
       </c>
       <c r="O30" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520597</v>
       </c>
       <c r="P30" t="n">
-        <v>394.0309186372826</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>461.8154963326045</v>
       </c>
       <c r="M33" t="n">
-        <v>92.53871239775768</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N33" t="n">
         <v>587.8045010990497</v>
       </c>
       <c r="O33" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520597</v>
       </c>
       <c r="P33" t="n">
-        <v>394.0309186372826</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>461.8154963326045</v>
       </c>
       <c r="M36" t="n">
-        <v>92.53871239775768</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N36" t="n">
         <v>587.8045010990497</v>
       </c>
       <c r="O36" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520597</v>
       </c>
       <c r="P36" t="n">
-        <v>394.0309186372826</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>467.3674100779797</v>
+        <v>441.3705992000436</v>
       </c>
       <c r="O39" t="n">
         <v>515.2820440006344</v>
@@ -37645,7 +37645,7 @@
         <v>212.9758034188281</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.99681087793587</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
